--- a/StockPredictor/bin/Debug/Packages/Data/Repeater/CELG/CELGNoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Repeater/CELG/CELGNoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -101,13 +101,22 @@
     <t>UpDown</t>
   </si>
   <si>
+    <t>Strong Buy</t>
+  </si>
+  <si>
+    <t>Noun</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Buy</t>
   </si>
   <si>
-    <t>Noun</t>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Down</t>
   </si>
 </sst>
 </file>
@@ -427,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,7 +444,7 @@
   <cols>
     <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -527,22 +536,22 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42651.427800925929</v>
+        <v>42651.601493055554</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>9861</v>
+        <v>9284</v>
       </c>
       <c r="F2">
-        <v>1608</v>
+        <v>1519</v>
       </c>
       <c r="G2">
         <v>46</v>
@@ -551,31 +560,31 @@
         <v>51</v>
       </c>
       <c r="I2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K2">
-        <v>47473</v>
+        <v>57621</v>
       </c>
       <c r="L2">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="M2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="N2">
         <v>88</v>
       </c>
       <c r="O2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P2" t="s">
         <v>26</v>
       </c>
       <c r="Q2">
-        <v>29.009771469523784</v>
+        <v>29.378539412357895</v>
       </c>
       <c r="R2">
         <v>0.84</v>
@@ -593,6 +602,160 @@
         <v>27</v>
       </c>
       <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42651.60193287037</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>4750</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3">
+        <v>29.820796582770228</v>
+      </c>
+      <c r="R3">
+        <v>0.84</v>
+      </c>
+      <c r="S3" s="2">
+        <v>-1.3599999999999999E-2</v>
+      </c>
+      <c r="T3" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="U3">
+        <v>14.53</v>
+      </c>
+      <c r="V3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>-0.39000000000000057</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42651.682453703703</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>9285</v>
+      </c>
+      <c r="F4">
+        <v>1519</v>
+      </c>
+      <c r="G4">
+        <v>46</v>
+      </c>
+      <c r="H4">
+        <v>51</v>
+      </c>
+      <c r="I4">
+        <v>91</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>26091</v>
+      </c>
+      <c r="L4">
+        <v>151</v>
+      </c>
+      <c r="M4">
+        <v>167</v>
+      </c>
+      <c r="N4">
+        <v>88</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4">
+        <v>29.009771469523784</v>
+      </c>
+      <c r="R4">
+        <v>0.84</v>
+      </c>
+      <c r="S4" s="2">
+        <v>-1.3599999999999999E-2</v>
+      </c>
+      <c r="T4" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="U4">
+        <v>14.53</v>
+      </c>
+      <c r="V4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4">
         <v>-2</v>
       </c>
     </row>
